--- a/TimetableGenerator/Staffing Franco.xlsx
+++ b/TimetableGenerator/Staffing Franco.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4b693afd8b450b4e/School Stuff/St.George/computerScience/timetablingIA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4b693afd8b450b4e/School Stuff/St.George/computerScience/timetableCode/TimetableGenerator/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="77" documentId="8_{7C9D602C-E773-4D73-9B60-1BFD92BF060A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F190D138-A51E-45E3-81A1-0C50C09B1DE8}"/>
   <bookViews>
-    <workbookView xWindow="2850" yWindow="2850" windowWidth="18000" windowHeight="9397" activeTab="6" xr2:uid="{B1972F16-2B34-4BF5-ACC3-5666D7320439}"/>
+    <workbookView xWindow="2850" yWindow="2850" windowWidth="18000" windowHeight="9397" activeTab="4" xr2:uid="{B1972F16-2B34-4BF5-ACC3-5666D7320439}"/>
   </bookViews>
   <sheets>
     <sheet name="Sci" sheetId="1" r:id="rId1"/>
@@ -4389,9 +4389,9 @@
   <dimension ref="A1:L63"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="N49" sqref="N49"/>
-      <selection pane="bottomLeft" activeCell="K25" sqref="K25"/>
+      <selection pane="bottomLeft" activeCell="C24" sqref="C24:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -5452,10 +5452,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C5F9C1F-EE74-4444-9B1A-4AA0115CD933}">
   <dimension ref="B1:K38"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="96" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F86" sqref="F86"/>
-      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
+      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -6223,10 +6223,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{661A8AE9-FB99-463E-8A56-262AAEE9709A}">
   <dimension ref="A1:Q71"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="Q29" sqref="Q29"/>
+      <selection pane="bottomLeft" activeCell="B31" sqref="B31:B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -9266,7 +9266,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1CEA69C-E3D2-4E0B-8BFD-4E661253D8E0}">
   <dimension ref="B1:Q63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
